--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.911942</v>
+        <v>0.4249093333333334</v>
       </c>
       <c r="H2">
-        <v>5.735825999999999</v>
+        <v>1.274728</v>
       </c>
       <c r="I2">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="J2">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.829178</v>
+        <v>192.036265</v>
       </c>
       <c r="N2">
-        <v>449.487534</v>
+        <v>576.108795</v>
       </c>
       <c r="O2">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="P2">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="Q2">
-        <v>286.464698243676</v>
+        <v>81.59800133697333</v>
       </c>
       <c r="R2">
-        <v>2578.182284193084</v>
+        <v>734.38201203276</v>
       </c>
       <c r="S2">
-        <v>0.2081416697707532</v>
+        <v>0.06466792582651359</v>
       </c>
       <c r="T2">
-        <v>0.2081416697707532</v>
+        <v>0.06466792582651359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.911942</v>
+        <v>0.4249093333333334</v>
       </c>
       <c r="H3">
-        <v>5.735825999999999</v>
+        <v>1.274728</v>
       </c>
       <c r="I3">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="J3">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.064358</v>
       </c>
       <c r="O3">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="P3">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="Q3">
-        <v>1.952958254412</v>
+        <v>0.4340247716248889</v>
       </c>
       <c r="R3">
-        <v>17.576624289708</v>
+        <v>3.906222944624001</v>
       </c>
       <c r="S3">
-        <v>0.001418995061374418</v>
+        <v>0.0003439726620557555</v>
       </c>
       <c r="T3">
-        <v>0.001418995061374418</v>
+        <v>0.0003439726620557555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.911942</v>
+        <v>0.4249093333333334</v>
       </c>
       <c r="H4">
-        <v>5.735825999999999</v>
+        <v>1.274728</v>
       </c>
       <c r="I4">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="J4">
-        <v>0.2156379149120961</v>
+        <v>0.06780552842016908</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.374661666666667</v>
+        <v>8.295893999999999</v>
       </c>
       <c r="N4">
-        <v>13.123985</v>
+        <v>24.887682</v>
       </c>
       <c r="O4">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="P4">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="Q4">
-        <v>8.36409937629</v>
+        <v>3.525002788944</v>
       </c>
       <c r="R4">
-        <v>75.27689438661</v>
+        <v>31.725025100496</v>
       </c>
       <c r="S4">
-        <v>0.006077250079968444</v>
+        <v>0.002793629931599738</v>
       </c>
       <c r="T4">
-        <v>0.006077250079968444</v>
+        <v>0.002793629931599738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>8.694761</v>
       </c>
       <c r="I5">
-        <v>0.3268788371019294</v>
+        <v>0.4624930683973976</v>
       </c>
       <c r="J5">
-        <v>0.3268788371019295</v>
+        <v>0.4624930683973975</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.829178</v>
+        <v>192.036265</v>
       </c>
       <c r="N5">
-        <v>449.487534</v>
+        <v>576.108795</v>
       </c>
       <c r="O5">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="P5">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="Q5">
-        <v>434.2429645121527</v>
+        <v>556.5698091692217</v>
       </c>
       <c r="R5">
-        <v>3908.186680609374</v>
+        <v>5009.128282522995</v>
       </c>
       <c r="S5">
-        <v>0.3155155112441738</v>
+        <v>0.4410918716991101</v>
       </c>
       <c r="T5">
-        <v>0.3155155112441738</v>
+        <v>0.44109187169911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.694761</v>
       </c>
       <c r="I6">
-        <v>0.3268788371019294</v>
+        <v>0.4624930683973976</v>
       </c>
       <c r="J6">
-        <v>0.3268788371019295</v>
+        <v>0.4624930683973975</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.064358</v>
       </c>
       <c r="O6">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="P6">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="Q6">
         <v>2.960428936493111</v>
@@ -818,10 +818,10 @@
         <v>26.643860428438</v>
       </c>
       <c r="S6">
-        <v>0.00215101066852985</v>
+        <v>0.002346194707505102</v>
       </c>
       <c r="T6">
-        <v>0.00215101066852985</v>
+        <v>0.002346194707505102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.694761</v>
       </c>
       <c r="I7">
-        <v>0.3268788371019294</v>
+        <v>0.4624930683973976</v>
       </c>
       <c r="J7">
-        <v>0.3268788371019295</v>
+        <v>0.4624930683973975</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.374661666666667</v>
+        <v>8.295893999999999</v>
       </c>
       <c r="N7">
-        <v>13.123985</v>
+        <v>24.887682</v>
       </c>
       <c r="O7">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="P7">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="Q7">
-        <v>12.67887921584278</v>
+        <v>24.043605203778</v>
       </c>
       <c r="R7">
-        <v>114.109912942585</v>
+        <v>216.392446834002</v>
       </c>
       <c r="S7">
-        <v>0.009212315189225844</v>
+        <v>0.0190550019907824</v>
       </c>
       <c r="T7">
-        <v>0.009212315189225844</v>
+        <v>0.0190550019907824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.056250666666667</v>
+        <v>2.943425333333333</v>
       </c>
       <c r="H8">
-        <v>12.168752</v>
+        <v>8.830276</v>
       </c>
       <c r="I8">
-        <v>0.4574832479859744</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="J8">
-        <v>0.4574832479859745</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>149.829178</v>
+        <v>192.036265</v>
       </c>
       <c r="N8">
-        <v>449.487534</v>
+        <v>576.108795</v>
       </c>
       <c r="O8">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="P8">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="Q8">
-        <v>607.7447031486188</v>
+        <v>565.2444073197133</v>
       </c>
       <c r="R8">
-        <v>5469.702328337569</v>
+        <v>5087.19966587742</v>
       </c>
       <c r="S8">
-        <v>0.4415797062718069</v>
+        <v>0.4479666512351209</v>
       </c>
       <c r="T8">
-        <v>0.441579706271807</v>
+        <v>0.4479666512351208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.056250666666667</v>
+        <v>2.943425333333333</v>
       </c>
       <c r="H9">
-        <v>12.168752</v>
+        <v>8.830276</v>
       </c>
       <c r="I9">
-        <v>0.4574832479859744</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="J9">
-        <v>0.4574832479859745</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.064358</v>
       </c>
       <c r="O9">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="P9">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="Q9">
-        <v>4.143268060135112</v>
+        <v>3.006569655867556</v>
       </c>
       <c r="R9">
-        <v>37.28941254121601</v>
+        <v>27.059126902808</v>
       </c>
       <c r="S9">
-        <v>0.00301044679372946</v>
+        <v>0.002382762081327977</v>
       </c>
       <c r="T9">
-        <v>0.003010446793729461</v>
+        <v>0.002382762081327976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.056250666666667</v>
+        <v>2.943425333333333</v>
       </c>
       <c r="H10">
-        <v>12.168752</v>
+        <v>8.830276</v>
       </c>
       <c r="I10">
-        <v>0.4574832479859744</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="J10">
-        <v>0.4574832479859745</v>
+        <v>0.4697014031824334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.374661666666667</v>
+        <v>8.295893999999999</v>
       </c>
       <c r="N10">
-        <v>13.123985</v>
+        <v>24.887682</v>
       </c>
       <c r="O10">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="P10">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="Q10">
-        <v>17.74472430185778</v>
+        <v>24.418344562248</v>
       </c>
       <c r="R10">
-        <v>159.70251871672</v>
+        <v>219.765101060232</v>
       </c>
       <c r="S10">
-        <v>0.01289309492043799</v>
+        <v>0.01935198986598459</v>
       </c>
       <c r="T10">
-        <v>0.01289309492043799</v>
+        <v>0.01935198986598459</v>
       </c>
     </row>
   </sheetData>
